--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-03/价格新高新低/最近52周新高,所属同花顺行业.xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-03/价格新高新低/最近52周新高,所属同花顺行业.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$C$1:$C$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$E$1:$E$99</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -790,9 +790,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -816,7 +816,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,24 +836,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,6 +853,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -876,18 +876,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,37 +905,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -946,7 +914,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,6 +933,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -993,31 +993,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,151 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,8 +1212,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,6 +1238,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,41 +1272,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1292,173 +1287,175 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1867,28 +1864,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.71323529411765" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.5735294117647" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.94117647058824" style="3"/>
+    <col min="1" max="2" width="8.71323529411765" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.5735294117647" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.94117647058824" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1905,7 +1902,7 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>COUNTIF(C:C,D2)</f>
         <v>15</v>
       </c>
@@ -1920,10 +1917,10 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E13" si="0">COUNTIF(C:C,D3)</f>
         <v>4</v>
       </c>
@@ -1938,10 +1935,10 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1956,15 +1953,15 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="41" spans="1:5">
+    <row r="6" ht="41" hidden="1" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1974,10 +1971,10 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1992,10 +1989,10 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2010,15 +2007,15 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="41" spans="1:5">
+    <row r="9" ht="41" hidden="1" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2028,15 +2025,15 @@
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="41" spans="1:5">
+    <row r="10" ht="41" hidden="1" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2046,15 +2043,15 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:5">
+    <row r="11" ht="28" hidden="1" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2064,15 +2061,15 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="41" spans="1:5">
+    <row r="12" ht="41" hidden="1" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2082,10 +2079,10 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2100,15 +2097,15 @@
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:5">
+    <row r="14" ht="28" hidden="1" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -2118,15 +2115,15 @@
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f>COUNTIF(C:C,D14)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="41" spans="1:5">
+    <row r="15" ht="41" hidden="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2136,15 +2133,15 @@
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>COUNTIF(C:C,D15)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="55" spans="1:5">
+    <row r="16" ht="55" hidden="1" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2154,15 +2151,15 @@
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f>COUNTIF(C:C,D16)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -2184,7 +2181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="55" spans="1:3">
+    <row r="19" hidden="1" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -2195,7 +2192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="55" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" ht="41" spans="1:3">
+    <row r="21" hidden="1" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -2217,7 +2214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" hidden="1" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" hidden="1" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" hidden="1" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -2261,7 +2258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" hidden="1" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -2272,7 +2269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" hidden="1" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -2283,7 +2280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" hidden="1" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" hidden="1" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -2316,7 +2313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" hidden="1" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -2327,7 +2324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" hidden="1" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2338,7 +2335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="41" spans="1:3">
+    <row r="33" hidden="1" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -2349,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="28" spans="1:3">
+    <row r="34" hidden="1" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -2360,7 +2357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" hidden="1" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -2371,7 +2368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" hidden="1" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -2382,7 +2379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" hidden="1" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -2393,7 +2390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" hidden="1" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" hidden="1" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" hidden="1" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -2426,7 +2423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" hidden="1" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -2437,7 +2434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" hidden="1" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -2448,7 +2445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" hidden="1" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -2459,7 +2456,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" hidden="1" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" hidden="1" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
@@ -2481,7 +2478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" hidden="1" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
@@ -2492,7 +2489,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" hidden="1" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>126</v>
       </c>
@@ -2503,7 +2500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" hidden="1" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>128</v>
       </c>
@@ -2514,7 +2511,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" hidden="1" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>131</v>
       </c>
@@ -2525,7 +2522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" hidden="1" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
@@ -2536,7 +2533,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" hidden="1" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>136</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" ht="28" spans="1:3">
+    <row r="52" hidden="1" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>138</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>140</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>142</v>
       </c>
@@ -2580,7 +2577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>144</v>
       </c>
@@ -2591,7 +2588,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>147</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>149</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>151</v>
       </c>
@@ -2624,7 +2621,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>154</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" ht="28" spans="1:3">
+    <row r="60" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>156</v>
       </c>
@@ -2646,7 +2643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>158</v>
       </c>
@@ -2657,7 +2654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>160</v>
       </c>
@@ -2668,7 +2665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>162</v>
       </c>
@@ -2679,7 +2676,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>165</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>168</v>
       </c>
@@ -2701,7 +2698,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" hidden="1" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>171</v>
       </c>
@@ -2712,7 +2709,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>174</v>
       </c>
@@ -2723,7 +2720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>176</v>
       </c>
@@ -2734,7 +2731,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>179</v>
       </c>
@@ -2745,7 +2742,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>182</v>
       </c>
@@ -2756,7 +2753,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>185</v>
       </c>
@@ -2767,7 +2764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" ht="41" spans="1:3">
+    <row r="72" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>187</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" ht="28" spans="1:3">
+    <row r="73" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>189</v>
       </c>
@@ -2789,7 +2786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" ht="28" spans="1:3">
+    <row r="74" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>191</v>
       </c>
@@ -2800,7 +2797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>193</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>195</v>
       </c>
@@ -2822,7 +2819,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>198</v>
       </c>
@@ -2833,7 +2830,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>201</v>
       </c>
@@ -2844,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>203</v>
       </c>
@@ -2855,7 +2852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>205</v>
       </c>
@@ -2866,7 +2863,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -2877,7 +2874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>210</v>
       </c>
@@ -2888,7 +2885,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>213</v>
       </c>
@@ -2899,7 +2896,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" hidden="1" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -2910,7 +2907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" ht="28" spans="1:3">
+    <row r="85" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>218</v>
       </c>
@@ -2921,7 +2918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>220</v>
       </c>
@@ -2932,7 +2929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>222</v>
       </c>
@@ -2943,7 +2940,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>225</v>
       </c>
@@ -2954,7 +2951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>227</v>
       </c>
@@ -2965,7 +2962,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" hidden="1" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>230</v>
       </c>
@@ -2976,7 +2973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" hidden="1" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>232</v>
       </c>
@@ -2987,7 +2984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" hidden="1" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>234</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" hidden="1" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>236</v>
       </c>
@@ -3009,7 +3006,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" hidden="1" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>239</v>
       </c>
@@ -3020,7 +3017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" hidden="1" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>242</v>
       </c>
@@ -3031,7 +3028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" hidden="1" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>244</v>
       </c>
@@ -3042,7 +3039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" hidden="1" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>247</v>
       </c>
@@ -3053,7 +3050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" hidden="1" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>249</v>
       </c>
@@ -3064,7 +3061,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" hidden="1" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>252</v>
       </c>
@@ -3076,6 +3073,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E99">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="15"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
@@ -3104,72 +3110,72 @@
       </c>
     </row>
     <row r="2" ht="41" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="41" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="41" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="41" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="41" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="41" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="41" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" ht="41" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" ht="41" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="41" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" ht="41" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
     </row>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-03/价格新高新低/最近52周新高,所属同花顺行业.xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-03/价格新高新低/最近52周新高,所属同花顺行业.xlsx
@@ -790,8 +790,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -822,8 +822,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,29 +859,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -883,23 +875,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,9 +890,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,21 +899,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,6 +920,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -965,6 +949,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -993,19 +993,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,163 +1143,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,6 +1218,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1229,15 +1238,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,21 +1272,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1306,148 +1291,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1961,7 +1961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="41" hidden="1" spans="1:5">
+    <row r="6" ht="41" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3076,6 +3076,7 @@
   <autoFilter ref="E1:E99">
     <filterColumn colId="0">
       <filters>
+        <filter val="3"/>
         <filter val="4"/>
         <filter val="5"/>
         <filter val="15"/>
